--- a/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Análisis de avance/INFO DASHBOARD.xlsx
@@ -1448,7 +1448,7 @@
   <dimension ref="B1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
@@ -1530,19 +1530,19 @@
         <v>63</v>
       </c>
       <c r="I2" s="7">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7">
         <f>E26-I2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K2" s="8">
         <f>C26</f>
-        <v>45</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="L2" s="8">
         <f>D26</f>
-        <v>75</v>
+        <v>52.43</v>
       </c>
       <c r="M2" s="12">
         <v>38</v>
@@ -1552,14 +1552,14 @@
         <v>25</v>
       </c>
       <c r="O2" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" s="8">
         <f>H3-O2</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1606,16 +1606,16 @@
         <v>LISTO</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="17">
         <v>5</v>
@@ -1625,10 +1625,10 @@
       </c>
       <c r="G5" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>LISTO</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
@@ -1655,11 +1655,11 @@
         <v>48</v>
       </c>
       <c r="C7" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="17">
         <v>5</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G7" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,11 +1699,11 @@
         <v>49</v>
       </c>
       <c r="C9" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
         <v>5</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1721,11 +1721,11 @@
         <v>50</v>
       </c>
       <c r="C10" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="17">
         <v>5</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G10" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1809,11 +1809,11 @@
         <v>54</v>
       </c>
       <c r="C14" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="17">
         <v>5</v>
@@ -1831,11 +1831,11 @@
         <v>29</v>
       </c>
       <c r="C15" s="20">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E15" s="17">
         <v>5</v>
@@ -1853,11 +1853,11 @@
         <v>55</v>
       </c>
       <c r="C16" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="17">
         <v>5</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1875,11 +1875,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="17">
         <v>5</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="G17" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1897,11 +1897,11 @@
         <v>31</v>
       </c>
       <c r="C18" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="17">
         <v>5</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G18" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1919,11 +1919,11 @@
         <v>56</v>
       </c>
       <c r="C19" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="17">
         <v>5</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1985,11 +1985,11 @@
         <v>35</v>
       </c>
       <c r="C22" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="17">
         <v>5</v>
@@ -2072,11 +2072,11 @@
       <c r="B26" s="1"/>
       <c r="C26" s="9">
         <f>SUM(C2:C25)</f>
-        <v>45</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="D26" s="9">
         <f>SUM(D2:D25)</f>
-        <v>75</v>
+        <v>52.43</v>
       </c>
       <c r="E26" s="9">
         <f>SUM(E2:E25)</f>
